--- a/data/trans_orig/P52_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P52_2-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>31363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22716</v>
+        <v>22856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42370</v>
+        <v>42623</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3274061594144008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2371409367793303</v>
+        <v>0.2386006840798914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4423050220522725</v>
+        <v>0.4449514759317174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -763,19 +763,19 @@
         <v>21381</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14471</v>
+        <v>15083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26783</v>
+        <v>27620</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5833833135664794</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3948356706864219</v>
+        <v>0.4115549905531887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7307685700457713</v>
+        <v>0.7536064055750689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -784,19 +784,19 @@
         <v>52744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41502</v>
+        <v>42241</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64938</v>
+        <v>65182</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3982410168026688</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3133600283616617</v>
+        <v>0.3189380430810967</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4903128056697709</v>
+        <v>0.4921571232256885</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6643</v>
+        <v>5868</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01911954895257276</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06935003542142358</v>
+        <v>0.06126147316967921</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6649</v>
+        <v>6333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01382872318388374</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05020212582527789</v>
+        <v>0.04781912120573618</v>
       </c>
     </row>
     <row r="6">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5161</v>
+        <v>4169</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02684677479816645</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1408189709396716</v>
+        <v>0.1137498457530543</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5063</v>
+        <v>5072</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00742912964425433</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03822936399009746</v>
+        <v>0.03829774807420368</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>62598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51199</v>
+        <v>51772</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71872</v>
+        <v>71208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6534742916330265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5344708022358173</v>
+        <v>0.540452782663845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7502895602138224</v>
+        <v>0.74335245363112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -960,19 +960,19 @@
         <v>14285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9274</v>
+        <v>8154</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21527</v>
+        <v>20571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3897699116353541</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2530332489574331</v>
+        <v>0.2224834863500139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5873637770862161</v>
+        <v>0.5612708659814249</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -981,19 +981,19 @@
         <v>76883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64177</v>
+        <v>64505</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88267</v>
+        <v>88202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5805011303691932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4845679465207055</v>
+        <v>0.4870439599229271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6664555587419309</v>
+        <v>0.6659640245331783</v>
       </c>
     </row>
     <row r="8">
@@ -1085,19 +1085,19 @@
         <v>25406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17704</v>
+        <v>16469</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35171</v>
+        <v>34783</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3765125388067831</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2623640075839859</v>
+        <v>0.2440714982970948</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5212237651935292</v>
+        <v>0.515472284588662</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1106,19 +1106,19 @@
         <v>15450</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9890</v>
+        <v>9261</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21132</v>
+        <v>20934</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5125534550031355</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3281073615012708</v>
+        <v>0.3072134628489531</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7010197943718331</v>
+        <v>0.6944508571273004</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -1127,19 +1127,19 @@
         <v>40857</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30410</v>
+        <v>30413</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>51404</v>
+        <v>51375</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4185200445459231</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.311505290839335</v>
+        <v>0.3115377235661306</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5265659302812281</v>
+        <v>0.5262637950166321</v>
       </c>
     </row>
     <row r="10">
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6010</v>
+        <v>6093</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0283119823581601</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08907198546977289</v>
+        <v>0.09029802542247831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6995</v>
+        <v>7818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07351415715040133</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2320596595997796</v>
+        <v>0.2593654782212034</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1198,19 +1198,19 @@
         <v>4126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>959</v>
+        <v>1012</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9389</v>
+        <v>9754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04226977292659494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009821726477501704</v>
+        <v>0.01037046206921681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09617386672607414</v>
+        <v>0.0999112830719138</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10195</v>
+        <v>9388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09356134581257697</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3382040319610723</v>
+        <v>0.3114237089347402</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10141</v>
+        <v>11830</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02889041680306521</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1038816918852942</v>
+        <v>0.1211816996506897</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>40161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29776</v>
+        <v>30532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48179</v>
+        <v>48999</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5951754788350568</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4412624514727965</v>
+        <v>0.4524718795742684</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.713992681652048</v>
+        <v>0.7261532379177379</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1311,19 +1311,19 @@
         <v>9657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4778</v>
+        <v>4837</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15452</v>
+        <v>15949</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3203710420338862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.158517293286205</v>
+        <v>0.1604771383719031</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5126127282154481</v>
+        <v>0.5290886201948962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1332,19 +1332,19 @@
         <v>49818</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39526</v>
+        <v>39154</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59885</v>
+        <v>60207</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5103197657244168</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4048929245921942</v>
+        <v>0.401075188709955</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6134383809380213</v>
+        <v>0.6167318830063141</v>
       </c>
     </row>
     <row r="13">
@@ -1436,19 +1436,19 @@
         <v>33749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25049</v>
+        <v>24501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43445</v>
+        <v>43081</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3680905683722028</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2732013410981339</v>
+        <v>0.2672214174737476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4738394603850395</v>
+        <v>0.4698683193376594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1457,19 +1457,19 @@
         <v>5838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2751</v>
+        <v>2869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8965</v>
+        <v>9798</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4884215085700838</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2301749749463699</v>
+        <v>0.2400671698854946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7500615278051708</v>
+        <v>0.8197493944111259</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -1478,19 +1478,19 @@
         <v>39587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29107</v>
+        <v>30403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49959</v>
+        <v>50214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3819670701640989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2808522153633699</v>
+        <v>0.2933546969253739</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4820503080688756</v>
+        <v>0.4845094140811324</v>
       </c>
     </row>
     <row r="15">
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7134</v>
+        <v>6381</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0215589634575235</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07780979603166152</v>
+        <v>0.06959950316985897</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6489</v>
+        <v>6589</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01907279494128169</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06260828965971123</v>
+        <v>0.06357661306397605</v>
       </c>
     </row>
     <row r="16">
@@ -1570,19 +1570,19 @@
         <v>3529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9293</v>
+        <v>9851</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03848577871511008</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00969462246727444</v>
+        <v>0.009948831749743601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1013572802161839</v>
+        <v>0.1074435306608343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         <v>3529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9764</v>
+        <v>9171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03404761861742853</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008570878102077517</v>
+        <v>0.008598585434884277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09420742476399094</v>
+        <v>0.0884924651494986</v>
       </c>
     </row>
     <row r="17">
@@ -1633,19 +1633,19 @@
         <v>52433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42626</v>
+        <v>42629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61414</v>
+        <v>61523</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5718646894551637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4649016156580593</v>
+        <v>0.4649334686596431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6698106350095321</v>
+        <v>0.67099880972611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1654,19 +1654,19 @@
         <v>6114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2987</v>
+        <v>2154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9201</v>
+        <v>9083</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5115784914299163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2499384721948294</v>
+        <v>0.180250605588874</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.76982502505363</v>
+        <v>0.7599328301145054</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -1675,19 +1675,19 @@
         <v>58547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47494</v>
+        <v>47871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68721</v>
+        <v>68275</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.564912516277191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4582619238426952</v>
+        <v>0.4618969177102778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6630779344850881</v>
+        <v>0.6587814819256769</v>
       </c>
     </row>
     <row r="18">
@@ -1779,19 +1779,19 @@
         <v>73222</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60011</v>
+        <v>61132</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85163</v>
+        <v>86313</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5096032367022163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4176613034091141</v>
+        <v>0.4254614943973496</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.592712466812465</v>
+        <v>0.6007146264282767</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1800,19 +1800,19 @@
         <v>26479</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18641</v>
+        <v>19688</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33535</v>
+        <v>33165</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5457774437176482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3842247927251482</v>
+        <v>0.4057941471457839</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6912193333650039</v>
+        <v>0.6835864282691823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -1821,19 +1821,19 @@
         <v>99701</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85506</v>
+        <v>85525</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114886</v>
+        <v>115163</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5187345589556005</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4448801024720034</v>
+        <v>0.4449806062648999</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5977398889687647</v>
+        <v>0.5991830081655904</v>
       </c>
     </row>
     <row r="20">
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7566</v>
+        <v>5872</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007289766966152816</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05266008606091925</v>
+        <v>0.04086805347767266</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6749</v>
+        <v>6923</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04298842351822506</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1391103119953779</v>
+        <v>0.1426964289254641</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1892,19 +1892,19 @@
         <v>3133</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>937</v>
+        <v>975</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8890</v>
+        <v>8464</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01630104776218504</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004877488528857636</v>
+        <v>0.005075321297075648</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04625331205733876</v>
+        <v>0.04403730769737378</v>
       </c>
     </row>
     <row r="21">
@@ -1921,19 +1921,19 @@
         <v>6406</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1896</v>
+        <v>1991</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14905</v>
+        <v>15985</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04458569940404334</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01319668884041974</v>
+        <v>0.01385625849813891</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.103733559822864</v>
+        <v>0.1112502546635418</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5170</v>
+        <v>5175</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.021008864973847</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.106563224903689</v>
+        <v>0.1066589494756523</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1963,19 +1963,19 @@
         <v>7426</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2869</v>
+        <v>2394</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17608</v>
+        <v>18583</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03863428565764209</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01492488704702638</v>
+        <v>0.01245709825791578</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09161225522990707</v>
+        <v>0.09668734538368774</v>
       </c>
     </row>
     <row r="22">
@@ -1992,19 +1992,19 @@
         <v>63008</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50278</v>
+        <v>50826</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75813</v>
+        <v>75047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4385212969275875</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3499225686845699</v>
+        <v>0.3537317815472392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5276384126694662</v>
+        <v>0.5223029841535175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2013,19 +2013,19 @@
         <v>18932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12174</v>
+        <v>12574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26610</v>
+        <v>26616</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3902252677902797</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2509217643682199</v>
+        <v>0.2591782156490307</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5484734749724861</v>
+        <v>0.5486067579090843</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -2034,19 +2034,19 @@
         <v>81941</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68022</v>
+        <v>66829</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96081</v>
+        <v>95871</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4263301076245724</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3539120762110669</v>
+        <v>0.3477041463343801</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.499903611155821</v>
+        <v>0.498808325626348</v>
       </c>
     </row>
     <row r="23">
@@ -2138,19 +2138,19 @@
         <v>26638</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18930</v>
+        <v>19145</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33483</v>
+        <v>33352</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5150787215724767</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3660329930803207</v>
+        <v>0.3701963737739888</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6474219235326373</v>
+        <v>0.6448945546207066</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2159,19 +2159,19 @@
         <v>11338</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6922</v>
+        <v>6548</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16116</v>
+        <v>16288</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5070113513558571</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.309547693838743</v>
+        <v>0.2928132912844738</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.72069507903219</v>
+        <v>0.728400776076677</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>35</v>
@@ -2180,19 +2180,19 @@
         <v>37976</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29264</v>
+        <v>28558</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46838</v>
+        <v>46235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5126434436587405</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.395040152472558</v>
+        <v>0.3855065906725875</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6322750036199536</v>
+        <v>0.6241324371991228</v>
       </c>
     </row>
     <row r="25">
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3977</v>
+        <v>4685</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04181925497904057</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1778333877002811</v>
+        <v>0.2095119769716548</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5324</v>
+        <v>5339</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01262387931689988</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07187249677695441</v>
+        <v>0.0720664108046344</v>
       </c>
     </row>
     <row r="26">
@@ -2272,19 +2272,19 @@
         <v>3757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>934</v>
+        <v>979</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9116</v>
+        <v>9025</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07265313046651935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01805850070556689</v>
+        <v>0.01892581799421422</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1762617647970225</v>
+        <v>0.1745091818476673</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6862</v>
+        <v>6292</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09918192585272621</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3068506610484699</v>
+        <v>0.2813752498333318</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2314,19 +2314,19 @@
         <v>5975</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2134</v>
+        <v>2103</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11377</v>
+        <v>12019</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08066131501084116</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0288127750433116</v>
+        <v>0.02838854716571756</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1535847722711533</v>
+        <v>0.162251814066727</v>
       </c>
     </row>
     <row r="27">
@@ -2343,19 +2343,19 @@
         <v>21321</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14592</v>
+        <v>14693</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28806</v>
+        <v>28386</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.412268147961004</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2821543890718018</v>
+        <v>0.2840956544854553</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.556994945211375</v>
+        <v>0.5488773971220632</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -2364,19 +2364,19 @@
         <v>7871</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3629</v>
+        <v>3868</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12165</v>
+        <v>12676</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3519874678123761</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1622856696066133</v>
+        <v>0.172967002780464</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5439956133117313</v>
+        <v>0.5668409429755924</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>28</v>
@@ -2385,19 +2385,19 @@
         <v>29192</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20985</v>
+        <v>21728</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38515</v>
+        <v>38060</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3940713620135184</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.283272609508801</v>
+        <v>0.293302308078434</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5199130908384025</v>
+        <v>0.5137736649813935</v>
       </c>
     </row>
     <row r="28">
@@ -2489,19 +2489,19 @@
         <v>45125</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36882</v>
+        <v>37002</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52787</v>
+        <v>52387</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.645026232958681</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5271894446733868</v>
+        <v>0.5289075945354245</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7545430098620726</v>
+        <v>0.7488238601298244</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2510,19 +2510,19 @@
         <v>24941</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18524</v>
+        <v>19433</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30045</v>
+        <v>30066</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6787482364884362</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5041238803629156</v>
+        <v>0.5288578491603479</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8176660889626118</v>
+        <v>0.8182268632976119</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>69</v>
@@ -2531,19 +2531,19 @@
         <v>70066</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>59251</v>
+        <v>61218</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79474</v>
+        <v>79716</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6566388175939224</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5552863903140697</v>
+        <v>0.5737194406280965</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7448057195988201</v>
+        <v>0.7470722619858189</v>
       </c>
     </row>
     <row r="30">
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6263</v>
+        <v>7055</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02862935943127577</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08952850553758603</v>
+        <v>0.1008505759284462</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5367</v>
+        <v>4303</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02880396614891647</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1460476649357052</v>
+        <v>0.117113344247761</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2602,19 +2602,19 @@
         <v>3061</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8277</v>
+        <v>8358</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02868948739148712</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00872205886369385</v>
+        <v>0.008814399420851394</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07756760324818759</v>
+        <v>0.07832626062977727</v>
       </c>
     </row>
     <row r="31">
@@ -2631,19 +2631,19 @@
         <v>2931</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7584</v>
+        <v>8941</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04189525420968442</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01334796811218449</v>
+        <v>0.01352779340002667</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.108410183043081</v>
+        <v>0.1278038531266535</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3927</v>
+        <v>4314</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02578015067318887</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.106880431327481</v>
+        <v>0.1174061515018381</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2676,16 +2676,16 @@
         <v>964</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9528</v>
+        <v>8821</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03634582107597079</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009036338843097185</v>
+        <v>0.009034132733693226</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08929726020151503</v>
+        <v>0.08266631514941056</v>
       </c>
     </row>
     <row r="32">
@@ -2702,19 +2702,19 @@
         <v>19900</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12769</v>
+        <v>13229</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27231</v>
+        <v>27837</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2844491534003588</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1825184646949695</v>
+        <v>0.1890939517344336</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3892486251485385</v>
+        <v>0.3979068913114736</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -2723,19 +2723,19 @@
         <v>9799</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4861</v>
+        <v>5647</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15641</v>
+        <v>15631</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2666676466894585</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1322829474996043</v>
+        <v>0.1536773151952748</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4256608541371247</v>
+        <v>0.4253969939787028</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>30</v>
@@ -2744,19 +2744,19 @@
         <v>29698</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21521</v>
+        <v>20937</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40617</v>
+        <v>38721</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2783258739386197</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2016878708084513</v>
+        <v>0.1962183049266428</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3806504146976469</v>
+        <v>0.3628838979228228</v>
       </c>
     </row>
     <row r="33">
@@ -2848,19 +2848,19 @@
         <v>235504</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>209233</v>
+        <v>211786</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>258745</v>
+        <v>260636</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4526159577458264</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4021248131004644</v>
+        <v>0.4070313132263046</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4972830043929021</v>
+        <v>0.5009173291837965</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>100</v>
@@ -2869,19 +2869,19 @@
         <v>105426</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>91442</v>
+        <v>90998</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>119146</v>
+        <v>119879</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5656859538855671</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4906519616421599</v>
+        <v>0.4882664780557959</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6392999507349663</v>
+        <v>0.6432352071205067</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>319</v>
@@ -2890,19 +2890,19 @@
         <v>340931</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>313720</v>
+        <v>312794</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>372616</v>
+        <v>369062</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4824350330218935</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.443929821363136</v>
+        <v>0.4426193897705779</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5272702033642624</v>
+        <v>0.522241308595378</v>
       </c>
     </row>
     <row r="35">
@@ -2919,19 +2919,19 @@
         <v>8769</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3992</v>
+        <v>3985</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16399</v>
+        <v>16631</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01685303273202134</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007671918705034839</v>
+        <v>0.007658061792086605</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03151678709374957</v>
+        <v>0.03196294967865924</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2940,19 +2940,19 @@
         <v>6295</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2194</v>
+        <v>2623</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12654</v>
+        <v>13763</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.033778328893069</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01177008400198287</v>
+        <v>0.0140716728608578</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06789742279267928</v>
+        <v>0.07384921069521141</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -2961,19 +2961,19 @@
         <v>15064</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8864</v>
+        <v>8733</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25065</v>
+        <v>24122</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02131661014005686</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01254356592217781</v>
+        <v>0.01235706927017697</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03546767359618423</v>
+        <v>0.03413389071925895</v>
       </c>
     </row>
     <row r="36">
@@ -2990,19 +2990,19 @@
         <v>16623</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9020</v>
+        <v>9061</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27837</v>
+        <v>27078</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03194831047276869</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01733632087263507</v>
+        <v>0.01741357997755828</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05349996623939613</v>
+        <v>0.05204058040113352</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -3011,19 +3011,19 @@
         <v>7989</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3808</v>
+        <v>3908</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>17462</v>
+        <v>17313</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04286518979561092</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02043121873590638</v>
+        <v>0.0209714599058085</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09369407367156479</v>
+        <v>0.09289471307502017</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -3032,19 +3032,19 @@
         <v>24612</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>15196</v>
+        <v>15804</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38945</v>
+        <v>37916</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03482733459429829</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02150349445874575</v>
+        <v>0.02236408088145803</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05510943127814095</v>
+        <v>0.05365341473144843</v>
       </c>
     </row>
     <row r="37">
@@ -3061,19 +3061,19 @@
         <v>259422</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>236810</v>
+        <v>235058</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>285297</v>
+        <v>282315</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4985826990493836</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4551247861724579</v>
+        <v>0.4517577645367837</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5483128848377539</v>
+        <v>0.5425816002168971</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -3082,19 +3082,19 @@
         <v>66659</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>54605</v>
+        <v>53058</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>80723</v>
+        <v>80847</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3576705274257529</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2929916387518068</v>
+        <v>0.2846914129338383</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4331374533100448</v>
+        <v>0.4338008496423515</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>304</v>
@@ -3103,19 +3103,19 @@
         <v>326081</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>298277</v>
+        <v>298030</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>352498</v>
+        <v>351806</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4614210222437514</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4220776233289096</v>
+        <v>0.4217272568376173</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4988035362852001</v>
+        <v>0.4978233399255941</v>
       </c>
     </row>
     <row r="38">
@@ -3449,19 +3449,19 @@
         <v>20811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13119</v>
+        <v>13236</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30710</v>
+        <v>30258</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2171883395815499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1369118948867347</v>
+        <v>0.1381324405667878</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3204898715834772</v>
+        <v>0.3157738314481525</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -3470,19 +3470,19 @@
         <v>14277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9313</v>
+        <v>8543</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21096</v>
+        <v>20135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4069397796644063</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2654498524271766</v>
+        <v>0.2435158973062453</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6013187987051078</v>
+        <v>0.5739302953493816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3491,19 +3491,19 @@
         <v>35088</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25509</v>
+        <v>25856</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46810</v>
+        <v>48141</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2680420899055549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1948710402242315</v>
+        <v>0.197518252593667</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3575867695519118</v>
+        <v>0.3677576616675986</v>
       </c>
     </row>
     <row r="5">
@@ -3520,19 +3520,19 @@
         <v>3460</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10580</v>
+        <v>9392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03610419013112008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01077309028962212</v>
+        <v>0.01062773104572838</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1104091601477926</v>
+        <v>0.09801833332666203</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4912</v>
+        <v>5266</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.028394966189842</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1400157313024351</v>
+        <v>0.1500945337236134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -3562,19 +3562,19 @@
         <v>4456</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1345</v>
+        <v>1040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10379</v>
+        <v>10639</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03403810331074913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01027822471214576</v>
+        <v>0.007945387189631595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07928535508258204</v>
+        <v>0.0812714525783019</v>
       </c>
     </row>
     <row r="6">
@@ -3591,19 +3591,19 @@
         <v>4747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11475</v>
+        <v>12110</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04953969819978515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01149833639075678</v>
+        <v>0.01132007400007163</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1197566757202028</v>
+        <v>0.1263809270044584</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6216</v>
+        <v>5746</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05631644300140003</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1771749013870255</v>
+        <v>0.1637828890599643</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -3633,19 +3633,19 @@
         <v>6723</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2739</v>
+        <v>2590</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13402</v>
+        <v>13834</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05135587882007631</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0209237418783568</v>
+        <v>0.0197882481659098</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1023836422764595</v>
+        <v>0.10568344553863</v>
       </c>
     </row>
     <row r="7">
@@ -3662,19 +3662,19 @@
         <v>66803</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56261</v>
+        <v>56108</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75189</v>
+        <v>75861</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6971677720875449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5871500470164687</v>
+        <v>0.5855539637609714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7846852451702687</v>
+        <v>0.791699897792889</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -3683,19 +3683,19 @@
         <v>17834</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12033</v>
+        <v>12288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23231</v>
+        <v>24517</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5083488111443517</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3429907740770124</v>
+        <v>0.3502576178909568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.662161769901587</v>
+        <v>0.6988158090556661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -3704,19 +3704,19 @@
         <v>84638</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72641</v>
+        <v>72318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94749</v>
+        <v>95403</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6465639279636196</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5549191426807141</v>
+        <v>0.552451348214713</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.723808117489275</v>
+        <v>0.7288018656658534</v>
       </c>
     </row>
     <row r="8">
@@ -3808,19 +3808,19 @@
         <v>17062</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10952</v>
+        <v>10559</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26087</v>
+        <v>24597</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.244968652439091</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1572424663381556</v>
+        <v>0.151605521304562</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3745472771888542</v>
+        <v>0.3531522952315675</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -3829,19 +3829,19 @@
         <v>15859</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10186</v>
+        <v>9830</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22885</v>
+        <v>22684</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3592565130369748</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2307367726810069</v>
+        <v>0.2226914252978294</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5184175354180272</v>
+        <v>0.5138585036239907</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>31</v>
@@ -3850,19 +3850,19 @@
         <v>32921</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23828</v>
+        <v>23581</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43954</v>
+        <v>43977</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2893042500346258</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2094004192858487</v>
+        <v>0.2072305634461644</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3862648338639023</v>
+        <v>0.3864645267236259</v>
       </c>
     </row>
     <row r="10">
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8855</v>
+        <v>9119</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03785033236936528</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1271366476842185</v>
+        <v>0.1309286040132139</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4628</v>
+        <v>3753</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02042384538255851</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1048499109836875</v>
+        <v>0.08501424269824871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3921,19 +3921,19 @@
         <v>3538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10705</v>
+        <v>10279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03109008932597424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007944844727017767</v>
+        <v>0.007897278525416039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09407825917117053</v>
+        <v>0.09033499045948595</v>
       </c>
     </row>
     <row r="11">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5800</v>
+        <v>5370</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01502624759714923</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08327012967825513</v>
+        <v>0.07710430674733906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8700</v>
+        <v>4675</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00919712748454108</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07645443771117902</v>
+        <v>0.0410834876928938</v>
       </c>
     </row>
     <row r="12">
@@ -4013,19 +4013,19 @@
         <v>48904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39371</v>
+        <v>40619</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55565</v>
+        <v>56025</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7021547675943945</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5652800523626748</v>
+        <v>0.5831995547962839</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7977828386023182</v>
+        <v>0.8043921785144055</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -4034,19 +4034,19 @@
         <v>27383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20433</v>
+        <v>20190</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33142</v>
+        <v>33662</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6203196415804667</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4628820168968303</v>
+        <v>0.4573652391093314</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7507727712311276</v>
+        <v>0.7625592379426311</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -4055,19 +4055,19 @@
         <v>76288</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63472</v>
+        <v>64670</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>85449</v>
+        <v>86432</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6704085331548588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5577817193790872</v>
+        <v>0.5683162601531219</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7509199236417007</v>
+        <v>0.7595585677500765</v>
       </c>
     </row>
     <row r="13">
@@ -4159,19 +4159,19 @@
         <v>14944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8804</v>
+        <v>8445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23458</v>
+        <v>23171</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1983703820947674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1168610839650806</v>
+        <v>0.1121017268183658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3113918849752754</v>
+        <v>0.3075719316752133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4917</v>
+        <v>4902</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2540684552457888</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6420316614514512</v>
+        <v>0.6401227549939711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -4201,19 +4201,19 @@
         <v>16890</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10464</v>
+        <v>10252</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25863</v>
+        <v>25319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2035099262210159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1260811787727706</v>
+        <v>0.1235240452516409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3116332531807094</v>
+        <v>0.3050775242407103</v>
       </c>
     </row>
     <row r="15">
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7094</v>
+        <v>6344</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02731754451351774</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09416619965452128</v>
+        <v>0.08420771254639357</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6396</v>
+        <v>6509</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0247968159226507</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07706385042621033</v>
+        <v>0.07843213179573447</v>
       </c>
     </row>
     <row r="16">
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6602</v>
+        <v>7308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02790755561786482</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08763148911019826</v>
+        <v>0.09701057444563232</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4145</v>
+        <v>3952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1274954875438741</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5413091180525871</v>
+        <v>0.5160118894407389</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4335,19 +4335,19 @@
         <v>3079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8682</v>
+        <v>8157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03709703995043325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01159118914439445</v>
+        <v>0.01157349875448732</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1046143131446353</v>
+        <v>0.09828702294116917</v>
       </c>
     </row>
     <row r="17">
@@ -4364,19 +4364,19 @@
         <v>56230</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48210</v>
+        <v>47734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63180</v>
+        <v>63140</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7464045177738501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6399550500792136</v>
+        <v>0.63363232689463</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8386672445899688</v>
+        <v>0.8381304498775307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4385,19 +4385,19 @@
         <v>4736</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6753</v>
+        <v>6729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6184360572103371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2368519462416265</v>
+        <v>0.2347784549802253</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8817837658464043</v>
+        <v>0.8787506355272442</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -4406,19 +4406,19 @@
         <v>60966</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52122</v>
+        <v>51110</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67949</v>
+        <v>67992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7345962179059001</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6280330121296805</v>
+        <v>0.615845593892316</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8187406465855264</v>
+        <v>0.8192645539828499</v>
       </c>
     </row>
     <row r="18">
@@ -4510,19 +4510,19 @@
         <v>47420</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35603</v>
+        <v>36270</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61781</v>
+        <v>60060</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.267020426828453</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2004773693651163</v>
+        <v>0.2042319941725213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.347882700214595</v>
+        <v>0.3381937724628185</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -4531,19 +4531,19 @@
         <v>31970</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23796</v>
+        <v>23107</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41474</v>
+        <v>40916</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.386670480526943</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2878037363096762</v>
+        <v>0.2794805481364819</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5016245902734233</v>
+        <v>0.4948661391039934</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -4552,19 +4552,19 @@
         <v>79390</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63929</v>
+        <v>65183</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95635</v>
+        <v>95024</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3050295807787191</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2456255599493758</v>
+        <v>0.250442596672129</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3674455554495475</v>
+        <v>0.36509570273709</v>
       </c>
     </row>
     <row r="20">
@@ -4581,19 +4581,19 @@
         <v>5674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2025</v>
+        <v>2086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11683</v>
+        <v>13551</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03194759749334609</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01140208793407</v>
+        <v>0.01174428879218229</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06578829295615304</v>
+        <v>0.07630709200880599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9235</v>
+        <v>10378</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03372300666089957</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1117014710335172</v>
+        <v>0.125519463943642</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4623,19 +4623,19 @@
         <v>8462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3507</v>
+        <v>3678</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17110</v>
+        <v>17332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03251159055718795</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01347583254720624</v>
+        <v>0.01413072871155938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06573870940551255</v>
+        <v>0.06659023823479378</v>
       </c>
     </row>
     <row r="21">
@@ -4652,19 +4652,19 @@
         <v>6086</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2047</v>
+        <v>2058</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12321</v>
+        <v>12226</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03426918756321164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01152807699871335</v>
+        <v>0.01158564852660688</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06937722137692302</v>
+        <v>0.06884397805203177</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4686,19 +4686,19 @@
         <v>6086</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2901</v>
+        <v>2091</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12292</v>
+        <v>12329</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02338291726430333</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01114585031379</v>
+        <v>0.008032469311863452</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04722828357078913</v>
+        <v>0.04737005006384557</v>
       </c>
     </row>
     <row r="22">
@@ -4715,19 +4715,19 @@
         <v>118411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103372</v>
+        <v>104238</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131304</v>
+        <v>130694</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6667627881149892</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5820792270198184</v>
+        <v>0.5869539105555974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7393604493320509</v>
+        <v>0.7359253683169104</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -4736,19 +4736,19 @@
         <v>47922</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39151</v>
+        <v>38263</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57537</v>
+        <v>56011</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5796065128121574</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4735238193729028</v>
+        <v>0.4627836197132944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6958986570331218</v>
+        <v>0.6774400993754356</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>159</v>
@@ -4757,19 +4757,19 @@
         <v>166333</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>149544</v>
+        <v>149795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>182555</v>
+        <v>181324</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6390759113997896</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5745708747681372</v>
+        <v>0.5755328409077992</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.701404087652048</v>
+        <v>0.696675339090523</v>
       </c>
     </row>
     <row r="23">
@@ -4861,19 +4861,19 @@
         <v>28530</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19918</v>
+        <v>18960</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38309</v>
+        <v>38057</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2928351405163933</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2044444876831927</v>
+        <v>0.1946114513256153</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3932081605667752</v>
+        <v>0.3906254338312908</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -4882,19 +4882,19 @@
         <v>10796</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5737</v>
+        <v>6591</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15772</v>
+        <v>16670</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3832889548130376</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2036695908197899</v>
+        <v>0.2340068349716514</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5599763902891564</v>
+        <v>0.5918645069035694</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -4903,19 +4903,19 @@
         <v>39326</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28767</v>
+        <v>29355</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51255</v>
+        <v>50229</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3131210785054563</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2290516337069661</v>
+        <v>0.2337345459555023</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4081052712649167</v>
+        <v>0.3999359183732585</v>
       </c>
     </row>
     <row r="25">
@@ -4932,19 +4932,19 @@
         <v>3282</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9540</v>
+        <v>9519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03368945758558263</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009274454050217932</v>
+        <v>0.009073354162863846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09792001998107146</v>
+        <v>0.0977035834427426</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6966</v>
+        <v>7102</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08302602035802716</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.24732676858954</v>
+        <v>0.2521598421207638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -4974,19 +4974,19 @@
         <v>5621</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1982</v>
+        <v>2121</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12114</v>
+        <v>11905</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04475409273422398</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01578513166563921</v>
+        <v>0.01688902747811639</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09645853163388061</v>
+        <v>0.09478854598526938</v>
       </c>
     </row>
     <row r="26">
@@ -5050,19 +5050,19 @@
         <v>65614</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>55467</v>
+        <v>55598</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>73766</v>
+        <v>74609</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6734754018980241</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5693224881273207</v>
+        <v>0.570673453266101</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7571445234508547</v>
+        <v>0.7657991661171395</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -5071,19 +5071,19 @@
         <v>15032</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9893</v>
+        <v>9771</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>20397</v>
+        <v>19864</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5336850248289353</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3512400299266975</v>
+        <v>0.3469183295832189</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7241759873808591</v>
+        <v>0.7052399013835312</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>75</v>
@@ -5092,19 +5092,19 @@
         <v>80646</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>69123</v>
+        <v>69446</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>91408</v>
+        <v>91145</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6421248287603197</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5503763953907311</v>
+        <v>0.5529469943375899</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7278154339367897</v>
+        <v>0.7257243185421355</v>
       </c>
     </row>
     <row r="28">
@@ -5196,19 +5196,19 @@
         <v>46319</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37119</v>
+        <v>37509</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55760</v>
+        <v>55178</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5074849038927174</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4066864526355399</v>
+        <v>0.4109683315123268</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6109244607107823</v>
+        <v>0.6045538854294169</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -5217,19 +5217,19 @@
         <v>16740</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10972</v>
+        <v>10810</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23235</v>
+        <v>23155</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4264762029002777</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2795164455869341</v>
+        <v>0.2754055173121826</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5919441773573186</v>
+        <v>0.5899080156445514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>61</v>
@@ -5238,19 +5238,19 @@
         <v>63059</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>51573</v>
+        <v>51814</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>74891</v>
+        <v>74274</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4831234733506962</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.395124094849622</v>
+        <v>0.3969738310253694</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5737799369358844</v>
+        <v>0.5690517100395832</v>
       </c>
     </row>
     <row r="30">
@@ -5267,19 +5267,19 @@
         <v>7250</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13948</v>
+        <v>14107</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07943824532298802</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03371763887922482</v>
+        <v>0.03375636190741893</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1528193058441596</v>
+        <v>0.1545645420051202</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5288,19 +5288,19 @@
         <v>2998</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7575</v>
+        <v>8061</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07636786395674387</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02391190601623246</v>
+        <v>0.02351856081247783</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1929860202023586</v>
+        <v>0.2053729020617427</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -5309,19 +5309,19 @@
         <v>10248</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5064</v>
+        <v>5035</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17469</v>
+        <v>18048</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07851490151578076</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03880143226025499</v>
+        <v>0.03857518156090207</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1338410365266222</v>
+        <v>0.1382706624702419</v>
       </c>
     </row>
     <row r="31">
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6456</v>
+        <v>5194</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01155186285577646</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07073530066930174</v>
+        <v>0.05690510270717974</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5313</v>
+        <v>6148</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.008077916216165269</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04070621287914666</v>
+        <v>0.04710009652899401</v>
       </c>
     </row>
     <row r="32">
@@ -5401,19 +5401,19 @@
         <v>36648</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27965</v>
+        <v>27452</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46948</v>
+        <v>45928</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4015249879285182</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3063917805532494</v>
+        <v>0.300778886787928</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5143833840794574</v>
+        <v>0.5032037917336999</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -5422,19 +5422,19 @@
         <v>19514</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13256</v>
+        <v>12830</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25766</v>
+        <v>25979</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4971559331429784</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3377195439750439</v>
+        <v>0.3268546153292751</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.656420242162529</v>
+        <v>0.661853782698774</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -5443,19 +5443,19 @@
         <v>56162</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>44154</v>
+        <v>45125</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>67215</v>
+        <v>67194</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4302837089173578</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3382818468094902</v>
+        <v>0.3457268797696428</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5149700665255177</v>
+        <v>0.5148033032972831</v>
       </c>
     </row>
     <row r="33">
@@ -5547,19 +5547,19 @@
         <v>175086</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>151320</v>
+        <v>153980</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>197078</v>
+        <v>198765</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2884008861165032</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2492526961038473</v>
+        <v>0.2536355323345</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3246256714657188</v>
+        <v>0.3274042522593912</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>89</v>
@@ -5568,19 +5568,19 @@
         <v>91587</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>76070</v>
+        <v>77517</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>106280</v>
+        <v>107857</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3864707166015512</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3209940531796358</v>
+        <v>0.3271013855628603</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4484710547836995</v>
+        <v>0.4551286567933956</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>252</v>
@@ -5589,19 +5589,19 @@
         <v>266673</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>239179</v>
+        <v>239039</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>293315</v>
+        <v>293690</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3159349462110012</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.283362215016785</v>
+        <v>0.283195936719617</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3474982793811133</v>
+        <v>0.3479425463350576</v>
       </c>
     </row>
     <row r="35">
@@ -5618,19 +5618,19 @@
         <v>24360</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15995</v>
+        <v>15640</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>36375</v>
+        <v>36011</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04012565241628165</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02634720517009047</v>
+        <v>0.02576189835706963</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05991741368308645</v>
+        <v>0.0593176465730729</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -5639,19 +5639,19 @@
         <v>10022</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4811</v>
+        <v>4964</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17442</v>
+        <v>19230</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0422903938503954</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02029997107906597</v>
+        <v>0.02094857185942521</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07359894849726092</v>
+        <v>0.08114354079128099</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -5660,19 +5660,19 @@
         <v>34382</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23367</v>
+        <v>23237</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>48456</v>
+        <v>46880</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04073342465817438</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02768304771612969</v>
+        <v>0.0275297539047959</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05740727333454861</v>
+        <v>0.05554030757300626</v>
       </c>
     </row>
     <row r="36">
@@ -5689,19 +5689,19 @@
         <v>15036</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8488</v>
+        <v>9176</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25529</v>
+        <v>24699</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02476750053951681</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01398207760099511</v>
+        <v>0.01511446693084017</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04205155261971325</v>
+        <v>0.04068475870646014</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -5710,19 +5710,19 @@
         <v>2952</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8000</v>
+        <v>8806</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01245703879864313</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003884646586256208</v>
+        <v>0.003891931609180508</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03375984951159771</v>
+        <v>0.03715905640648132</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>17</v>
@@ -5731,19 +5731,19 @@
         <v>17988</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11332</v>
+        <v>10756</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>28803</v>
+        <v>27771</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02131121850366774</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01342528340193887</v>
+        <v>0.01274317424373866</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03412403919224793</v>
+        <v>0.0329016607237197</v>
       </c>
     </row>
     <row r="37">
@@ -5760,19 +5760,19 @@
         <v>392611</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>368398</v>
+        <v>368878</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>415003</v>
+        <v>417375</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6467059609276984</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6068237285756439</v>
+        <v>0.6076143379938717</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6835911776283903</v>
+        <v>0.6874969619192346</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>131</v>
@@ -5781,19 +5781,19 @@
         <v>132421</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>118265</v>
+        <v>115802</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>149633</v>
+        <v>146868</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5587818507494102</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4990445654276934</v>
+        <v>0.4886524063809439</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6314112497005334</v>
+        <v>0.6197451465409747</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>492</v>
@@ -5802,19 +5802,19 @@
         <v>525032</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>497247</v>
+        <v>495180</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>554088</v>
+        <v>554653</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6220204106271567</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5891028796212187</v>
+        <v>0.586654434894491</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6564441015441154</v>
+        <v>0.6571138775308667</v>
       </c>
     </row>
     <row r="38">
